--- a/Matrice Raci/Matrice Raci DrapeauApp.xlsx
+++ b/Matrice Raci/Matrice Raci DrapeauApp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aller\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aller\OneDrive\Documents\GitHub\DrapeauApp\Matrice Raci\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -93,13 +93,13 @@
     <t>C</t>
   </si>
   <si>
-    <t xml:space="preserve">A </t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
     <t>Formation utilisateurs</t>
+  </si>
+  <si>
+    <t>A,C</t>
   </si>
 </sst>
 </file>
@@ -122,7 +122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,6 +159,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -187,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -198,6 +204,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -206,6 +213,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99CCFF"/>
       <color rgb="FF3366FF"/>
     </mruColors>
   </colors>
@@ -575,7 +583,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,25 +666,25 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
+      <c r="B6" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
+      <c r="B7" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>20</v>
@@ -690,10 +698,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -704,15 +712,15 @@
         <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>18</v>
@@ -721,7 +729,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -732,10 +740,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -746,7 +754,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>21</v>
